--- a/dacapo-singlemachine-time.xlsx
+++ b/dacapo-singlemachine-time.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="overall-time" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
   <si>
     <t>Static</t>
   </si>
@@ -2153,175 +2153,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'overall-time'!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HY-OFF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'overall-time'!$A$3:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>DOM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PDOM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LV</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RD</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LMA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LMNA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>AE</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>VBE</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>RS</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>NA</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>CSD</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LIC</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>DC</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CP</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>WNIL</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>DEI</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>IL</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>UIR</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>UDV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'overall-time'!$I$3:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.2988337116818167</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.138202622029568</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9862987046724383</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0752338937865513</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0613199236446249</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.1182247749810976</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0976192826386191</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0280146169435014</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0584013289506444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.9736803450372751</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.008861078811762</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.1432835547378222</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.1065310984952603</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.0888646452854109</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.1663027583718826</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.4804890010467009</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.4879960729964798</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4709881710825536</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.4708697563153947</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.4777353181315709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-BAE1-4EFC-A501-8D63D3FCE1AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2561,12 +2392,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2586,6 +2412,1834 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'overall-time'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'overall-time'!$J$3:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>DOM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PDOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LMA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LMNA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VBE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CSD</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LIC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CP</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WNIL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DEI</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>UIR</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>UDV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'overall-time'!$K$3:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>42.858420516252352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.790743559627025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.307816733047471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.115104679108647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.814547072682956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.06328760079225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.711332646552364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.898992967101098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.452416335673121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0618060906752369</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.003724295261822</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.04927102992918</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.046094191788203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.605907543143459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.547750000391199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.001282241473834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5451865772179505</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.218862587861393</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6989961821260779</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7803559974062608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BF0-4026-9BB0-4841B5A5F77C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'overall-time'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'overall-time'!$J$3:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>DOM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PDOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LMA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LMNA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VBE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CSD</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LIC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CP</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WNIL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DEI</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>UIR</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>UDV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'overall-time'!$L$3:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>96.308885551242426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.287369939562168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.000042993236043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.516481666810606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.909361946204296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.816795319450868</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1772291393050534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.739925828251504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.9861263517559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5361690589198931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.641455501735862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.533765110717368</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.395981008808931</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.181950296073836</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.559479873990526</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6211248057277703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1906632133656845</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1355614662455613</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7275833032996291</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3505956655968228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BF0-4026-9BB0-4841B5A5F77C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'overall-time'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RPO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'overall-time'!$J$3:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>DOM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PDOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LMA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LMNA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VBE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CSD</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LIC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CP</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WNIL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DEI</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>UIR</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>UDV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'overall-time'!$M$3:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>37.05706730888906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.849457885181806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.606749363856025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6299101687006914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.58303640409714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.915591977566127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.596416754629516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.024991304939221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.163201259376887</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8445267053169321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.663594025112449</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.672973195169114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6558580887070766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.137643107799931</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4960442283793487</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5664628584962221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1107959198887212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.0039144911149265E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96577703335641862</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6433357911455309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3BF0-4026-9BB0-4841B5A5F77C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'overall-time'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WPO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'overall-time'!$J$3:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>DOM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PDOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LMA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LMNA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VBE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CSD</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LIC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CP</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WNIL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DEI</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>UIR</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>UDV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'overall-time'!$N$3:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>59.705810865406526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1477918964033638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.043704779552316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.814243485771378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.498299057427765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.620215677522282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.130157115587643</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5846531549954896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.878351696122166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9072713822957095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.952478775911828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.821702441661962</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.909644184901175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1172703802726742</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.85068597911016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2615356432564635</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1395212300953879</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1116877028847929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32824521580538946</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8945218320233366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3BF0-4026-9BB0-4841B5A5F77C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'overall-time'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WRPO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'overall-time'!$J$3:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>DOM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PDOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LMA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LMNA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VBE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CSD</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LIC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CP</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WNIL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DEI</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>UIR</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>UDV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'overall-time'!$O$3:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.0080880438666524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.438931939765354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.528415665426131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5464271663966063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2427055247693728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8971838229088691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1772291393050534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.962595549102481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1816921242887606</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0766582638442546</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2119444820602698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6482304966975891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4240016106446447</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.277691618490735</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8819467254498061</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2042857175881849</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3943679302954406</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2624637128419778</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22338841420207478</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3744627328866095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3BF0-4026-9BB0-4841B5A5F77C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'overall-time'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'overall-time'!$J$3:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>DOM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PDOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LMA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LMNA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VBE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CSD</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LIC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CP</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WNIL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DEI</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>UIR</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>UDV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'overall-time'!$P$3:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>93.074032700024503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.196551465017166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.043503527692167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.606823850024426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.35256248083822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.078931657002812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.706324229307413</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.966674130632498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.210836438751144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7239718905916828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.707556057809086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.948424819662094</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.971120941188687</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.614241729696801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.601478206480522</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5326298853809317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0415704755061261</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.75075367395411874</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.16307972966613793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1126171367341637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3BF0-4026-9BB0-4841B5A5F77C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="370002832"/>
+        <c:axId val="370000208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="370002832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370000208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="370000208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370002832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'overall-time'!$H$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'overall-time'!$G$26:$G$45</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>DOM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PDOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LMA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LMNA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VBE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CSD</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LIC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CP</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WNIL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DEI</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>UIR</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>UDV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'overall-time'!$H$26:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.7065159207477318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6595573835601183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5762004293130483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6611739829929677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6126142580948075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6254514827999795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6207431948288695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5752686785502767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6312758837798107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5418326083122951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5450333380542265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6556763000818711</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6876821500770989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6356987899721567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7065127367055366</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4807044174927659</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4881090062285329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4713110631420134</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4710753168821071</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4778798543617064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1607-401E-9434-B7FFFB90BD2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'overall-time'!$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HY-OFF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'overall-time'!$G$26:$G$45</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>DOM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PDOM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LMA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LMNA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VBE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CSD</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LIC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CP</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WNIL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DEI</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>UIR</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>UDV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'overall-time'!$I$26:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.2988337116818167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.138202622029568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9862987046724383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0752338937865513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0613199236446249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1182247749810976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0976192826386191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0280146169435014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0584013289506444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9736803450372751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.008861078811762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1432835547378222</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1065310984952603</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0888646452854109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1663027583718826</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4804890010467009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4879960729964798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4709881710825536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4708697563153947</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4777353181315709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1607-401E-9434-B7FFFB90BD2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="368062368"/>
+        <c:axId val="368057120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="368062368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368057120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="368057120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution time in log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> scale (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368062368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2669,6 +4323,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3675,20 +5409,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3714,16 +6454,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>263524</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53974</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3742,7 +6482,347 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88391</cdr:x>
+      <cdr:y>0.03472</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97695</cdr:x>
+      <cdr:y>0.13079</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6575425" y="95249"/>
+          <a:ext cx="692151" cy="263525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>DaCapo</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75468</cdr:x>
+      <cdr:y>0.23611</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9742</cdr:x>
+      <cdr:y>0.31944</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4737100" y="647700"/>
+          <a:ext cx="1377950" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.70612</cdr:x>
+      <cdr:y>0.10185</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9742</cdr:x>
+      <cdr:y>0.19444</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4432300" y="279400"/>
+          <a:ext cx="1682750" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>% REDUCTION - DACAPO</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83194</cdr:x>
+      <cdr:y>0.04861</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98333</cdr:x>
+      <cdr:y>0.14468</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3803650" y="133350"/>
+          <a:ext cx="692151" cy="263525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>DaCapo</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4045,7 +7125,7 @@
   <dimension ref="A2:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4924,15 +8004,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" activeCellId="1" sqref="H2 O13"/>
+      <selection activeCell="H2" sqref="H2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5">
+    <row r="1" spans="1:10" ht="14.5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4946,7 +8026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5">
+    <row r="2" spans="1:10" ht="14.5">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4962,8 +8042,19 @@
       <c r="F2">
         <v>4.7062170483122925</v>
       </c>
+      <c r="H2">
+        <f>10^E2</f>
+        <v>35.000000000000007</v>
+      </c>
+      <c r="I2">
+        <f>J2*0.03</f>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J2">
+        <v>50841.347000000016</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5">
+    <row r="3" spans="1:10" ht="14.5">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4979,8 +8070,19 @@
       <c r="F3">
         <v>4.6592338885528726</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H21" si="0">10^E3</f>
+        <v>34.000000000000007</v>
+      </c>
+      <c r="I3">
+        <f>I2</f>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J3">
+        <v>45628.258000000016</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="14.5">
+    <row r="4" spans="1:10" ht="14.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4996,8 +8098,19 @@
       <c r="F4">
         <v>4.5758315211193139</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>32.000000000000014</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I21" si="1">I3</f>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J4">
+        <v>37655.769000000044</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="14.5">
+    <row r="5" spans="1:10" ht="14.5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5013,8 +8126,19 @@
       <c r="F5">
         <v>4.660718912075879</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>48.000000000000007</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J5">
+        <v>45784.546000000075</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="14.5">
+    <row r="6" spans="1:10" ht="14.5">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5030,8 +8154,19 @@
       <c r="F6">
         <v>4.611808162345544</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>76.000000000000071</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J6">
+        <v>40907.992000000013</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="14.5">
+    <row r="7" spans="1:10" ht="14.5">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5047,8 +8182,19 @@
       <c r="F7">
         <v>4.6191657765960672</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>80.000000000000043</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J7">
+        <v>41606.940000000082</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="14.5">
+    <row r="8" spans="1:10" ht="14.5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5064,8 +8210,19 @@
       <c r="F8">
         <v>4.6202957564095737</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J8">
+        <v>41715.337000000007</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="14.5">
+    <row r="9" spans="1:10" ht="14.5">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5081,8 +8238,19 @@
       <c r="F9">
         <v>4.5747602587047389</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>44.000000000000014</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J9">
+        <v>37562.99900000004</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="14.5">
+    <row r="10" spans="1:10" ht="14.5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5098,8 +8266,19 @@
       <c r="F10">
         <v>4.6303613323513177</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>90.000000000000071</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J10">
+        <v>42693.45800000005</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" ht="14.5">
+    <row r="11" spans="1:10" ht="14.5">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -5115,8 +8294,19 @@
       <c r="F11">
         <v>4.541483239279847</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>28.000000000000011</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J11">
+        <v>34792.308000000077</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="14.5">
+    <row r="12" spans="1:10" ht="14.5">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5132,8 +8322,19 @@
       <c r="F12">
         <v>4.5442402389919039</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>64.000000000000028</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J12">
+        <v>35013.880000000092</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" ht="14.5">
+    <row r="13" spans="1:10" ht="14.5">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -5149,8 +8350,19 @@
       <c r="F13">
         <v>4.655100134498583</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>60.000000000000036</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J13">
+        <v>45196.014000000047</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" ht="14.5">
+    <row r="14" spans="1:10" ht="14.5">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5166,8 +8378,19 @@
       <c r="F14">
         <v>4.6870666062399007</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>69.000000000000014</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J14">
+        <v>48648.181000000004</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="14.5">
+    <row r="15" spans="1:10" ht="14.5">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5183,8 +8406,19 @@
       <c r="F15">
         <v>4.635246388284556</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>45.000000000000014</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J15">
+        <v>43176.396000000081</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" ht="14.5">
+    <row r="16" spans="1:10" ht="14.5">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5200,8 +8434,19 @@
       <c r="F16">
         <v>4.7060600750000354</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>53.000000000000007</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J16">
+        <v>50822.974000000031</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" ht="14.5">
+    <row r="17" spans="1:10" ht="14.5">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5217,8 +8462,19 @@
       <c r="F17">
         <v>4.4804890010467009</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>15.000000000000007</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J17">
+        <v>30233.540000000063</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" ht="14.5">
+    <row r="18" spans="1:10" ht="14.5">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5234,8 +8490,19 @@
       <c r="F18">
         <v>4.4879960729964798</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J18">
+        <v>30760.690000000042</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" ht="14.5">
+    <row r="19" spans="1:10" ht="14.5">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5251,8 +8518,19 @@
       <c r="F19">
         <v>4.4709881710825536</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>22.000000000000004</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J19">
+        <v>29579.31900000005</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="14.5">
+    <row r="20" spans="1:10" ht="14.5">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5268,8 +8546,19 @@
       <c r="F20">
         <v>4.4708697563153947</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>14.000000000000004</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J20">
+        <v>29571.255000000012</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" ht="14.5">
+    <row r="21" spans="1:10" ht="14.5">
       <c r="D21" s="4" t="s">
         <v>54</v>
       </c>
@@ -5278,6 +8567,17 @@
       </c>
       <c r="F21">
         <v>4.4777353181315709</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1525.2404100000003</v>
+      </c>
+      <c r="J21">
+        <v>30042.448000000044</v>
       </c>
     </row>
   </sheetData>
@@ -5288,15 +8588,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K22"/>
+  <dimension ref="A2:Q45"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="14.5">
+    <row r="2" spans="1:17" ht="14.5">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -5324,8 +8627,32 @@
       <c r="I2" t="s">
         <v>34</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="14.5">
+    <row r="3" spans="1:17" ht="14.5">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -5353,12 +8680,39 @@
       <c r="I3">
         <v>5.2988337116818167</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="K3">
-        <f>10^4.62</f>
-        <v>41686.938347033625</v>
+        <f>(1-10^H3/10^B3)*100</f>
+        <v>42.858420516252352</v>
+      </c>
+      <c r="L3">
+        <f>(1-10^H3/10^C3)*100</f>
+        <v>96.308885551242426</v>
+      </c>
+      <c r="M3">
+        <f>(1-10^H3/10^D3)*100</f>
+        <v>37.05706730888906</v>
+      </c>
+      <c r="N3">
+        <f>(1-10^H3/10^E3)*100</f>
+        <v>59.705810865406526</v>
+      </c>
+      <c r="O3">
+        <f>(1-10^H3/10^F3)*100</f>
+        <v>3.0080880438666524</v>
+      </c>
+      <c r="P3">
+        <f>(1-10^H3/10^G3)*100</f>
+        <v>93.074032700024503</v>
+      </c>
+      <c r="Q3">
+        <f>(1-10^H3/10^I3)*100</f>
+        <v>74.43285649615926</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.5">
+    <row r="4" spans="1:17" ht="14.5">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -5386,8 +8740,39 @@
       <c r="I4">
         <v>5.138202622029568</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K22" si="0">(1-10^H4/10^B4)*100</f>
+        <v>37.790743559627025</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L22" si="1">(1-10^H4/10^C4)*100</f>
+        <v>29.287369939562168</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M22" si="2">(1-10^H4/10^D4)*100</f>
+        <v>91.849457885181806</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N22" si="3">(1-10^H4/10^E4)*100</f>
+        <v>5.1477918964033638</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O22" si="4">(1-10^H4/10^F4)*100</f>
+        <v>62.438931939765354</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P22" si="5">(1-10^H4/10^G4)*100</f>
+        <v>85.196551465017166</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q17" si="6">(1-10^H4/10^I4)*100</f>
+        <v>66.783431752009676</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="14.5">
+    <row r="5" spans="1:17" ht="14.5">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -5415,8 +8800,39 @@
       <c r="I5">
         <v>4.9862987046724383</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>23.307816733047471</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>18.000042993236043</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>72.606749363856025</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>5.043704779552316</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>39.528415665426131</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>60.043503527692167</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>61.104288105135751</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="14.5">
+    <row r="6" spans="1:17" ht="14.5">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -5444,8 +8860,39 @@
       <c r="I6">
         <v>5.0752338937865513</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>13.115104679108647</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>77.516481666810606</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>5.6299101687006914</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>57.814243485771378</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>6.5464271663966063</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>64.606823850024426</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>61.457481529042646</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="14.5">
+    <row r="7" spans="1:17" ht="14.5">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -5473,8 +8920,39 @@
       <c r="I7">
         <v>5.0613199236446249</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>22.814547072682956</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>31.909361946204296</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>17.58303640409714</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>60.498299057427765</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>2.2427055247693728</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>31.35256248083822</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>64.412757768334217</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5">
+    <row r="8" spans="1:17" ht="14.5">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -5502,8 +8980,39 @@
       <c r="I8">
         <v>5.1182247749810976</v>
       </c>
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>27.06328760079225</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>36.816795319450868</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>19.915591977566127</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>64.620215677522282</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>5.8971838229088691</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>40.078931657002812</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>67.846614474898487</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5">
+    <row r="9" spans="1:17" ht="14.5">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -5531,8 +9040,39 @@
       <c r="I9">
         <v>5.0976192826386191</v>
       </c>
+      <c r="J9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>26.711332646552364</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>8.1772291393050534</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>25.596416754629516</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>60.130157115587643</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>8.1772291393050534</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>78.706324229307413</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>66.647844098595016</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5">
+    <row r="10" spans="1:17" ht="14.5">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -5560,8 +9100,39 @@
       <c r="I10">
         <v>5.0280146169435014</v>
       </c>
+      <c r="J10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>24.898992967101098</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>21.739925828251504</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>79.024991304939221</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>6.5846531549954896</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>60.962595549102481</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>67.966674130632498</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>64.742293223111758</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" ht="14.5">
+    <row r="11" spans="1:17" ht="14.5">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -5589,8 +9160,39 @@
       <c r="I11">
         <v>5.0584013289506444</v>
       </c>
+      <c r="J11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>23.452416335673121</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>86.9861263517559</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>22.163201259376887</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>58.878351696122166</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>4.1816921242887606</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>78.210836438751144</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>62.599745728548598</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" ht="14.5">
+    <row r="12" spans="1:17" ht="14.5">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -5618,8 +9220,39 @@
       <c r="I12">
         <v>4.9736803450372751</v>
       </c>
+      <c r="J12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>6.0618060906752369</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>5.5361690589198931</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>4.8445267053169321</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>5.9072713822957095</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>1.0766582638442546</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>4.7239718905916828</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>63.004213604301306</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" ht="14.5">
+    <row r="13" spans="1:17" ht="14.5">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -5647,8 +9280,39 @@
       <c r="I13">
         <v>5.008861078811762</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>14.003724295261822</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>77.641455501735862</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>16.663594025112449</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>31.952478775911828</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>4.2119444820602698</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>64.707556057809086</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>65.630575570978507</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" ht="14.5">
+    <row r="14" spans="1:17" ht="14.5">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -5676,8 +9340,39 @@
       <c r="I14">
         <v>5.1432835547378222</v>
       </c>
+      <c r="J14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>29.04927102992918</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>89.533765110717368</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>26.672973195169114</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>62.821702441661962</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>1.6482304966975891</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>81.948424819662094</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>67.461858358700638</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" ht="14.5">
+    <row r="15" spans="1:17" ht="14.5">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -5705,8 +9400,39 @@
       <c r="I15">
         <v>5.1065310984952603</v>
       </c>
+      <c r="J15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>11.046094191788203</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>76.395981008808931</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>4.6558580887070766</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>55.909644184901175</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>3.4240016106446447</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>62.971120941188687</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>61.880161538563151</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" ht="14.5">
+    <row r="16" spans="1:17" ht="14.5">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -5734,8 +9460,39 @@
       <c r="I16">
         <v>5.0888646452854109</v>
       </c>
+      <c r="J16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>28.605907543143459</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>19.181950296073836</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>82.137643107799931</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>3.1172703802726742</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>50.277691618490735</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>71.614241729696801</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>64.776367228136436</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" ht="14.5">
+    <row r="17" spans="1:17" ht="14.5">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -5763,8 +9520,39 @@
       <c r="I17">
         <v>5.1663027583718826</v>
       </c>
+      <c r="J17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>11.547750000391199</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>75.559479873990526</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>5.4960442283793487</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>54.85068597911016</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>6.8819467254498061</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>61.601478206480522</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>65.309546417996444</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="14.5">
+    <row r="18" spans="1:17" ht="14.5">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5792,8 +9580,38 @@
       <c r="I18">
         <v>4.4804890010467009</v>
       </c>
+      <c r="J18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>2.001282241473834</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>2.6211248057277703</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>3.5664628584962221</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>3.2615356432564635</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>4.2042857175881849</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>1.5326298853809317</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" ht="14.5">
+    <row r="19" spans="1:17" ht="14.5">
       <c r="A19" s="4" t="s">
         <v>51</v>
       </c>
@@ -5821,8 +9639,38 @@
       <c r="I19">
         <v>4.4879960729964798</v>
       </c>
+      <c r="J19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>2.5451865772179505</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>2.1906632133656845</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>4.1107959198887212</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>3.1395212300953879</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>5.3943679302954406</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>-1.0415704755061261</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" ht="14.5">
+    <row r="20" spans="1:17" ht="14.5">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -5850,8 +9698,38 @@
       <c r="I20">
         <v>4.4709881710825536</v>
       </c>
+      <c r="J20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>3.218862587861393</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>2.1355614662455613</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>-7.0039144911149265E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>5.1116877028847929</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>2.2624637128419778</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>-0.75075367395411874</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="14.5">
+    <row r="21" spans="1:17" ht="14.5">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -5879,8 +9757,38 @@
       <c r="I21">
         <v>4.4708697563153947</v>
       </c>
+      <c r="J21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1.6989961821260779</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>1.7275833032996291</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>0.96577703335641862</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>0.32824521580538946</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>0.22338841420207478</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>-0.16307972966613793</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" ht="14.5">
+    <row r="22" spans="1:17" ht="14.5">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -5906,6 +9814,281 @@
         <v>4.4778798543617064</v>
       </c>
       <c r="I22">
+        <v>4.4777353181315709</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>4.7803559974062608</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>3.3505956655968228</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>4.6433357911455309</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>5.8945218320233366</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>5.3744627328866095</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>3.1126171367341637</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="B24">
+        <f>10^4.499</f>
+        <v>31550.046233746289</v>
+      </c>
+      <c r="C24">
+        <f>10^4.477</f>
+        <v>29991.625189876548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14.5">
+      <c r="C25">
+        <f>29991/31550</f>
+        <v>0.95058637083993658</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="14.5">
+      <c r="G26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26">
+        <v>4.7065159207477318</v>
+      </c>
+      <c r="I26">
+        <v>5.2988337116818167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="14.5">
+      <c r="G27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27">
+        <v>4.6595573835601183</v>
+      </c>
+      <c r="I27">
+        <v>5.138202622029568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="14.5">
+      <c r="G28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>4.5762004293130483</v>
+      </c>
+      <c r="I28">
+        <v>4.9862987046724383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="14.5">
+      <c r="G29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>4.6611739829929677</v>
+      </c>
+      <c r="I29">
+        <v>5.0752338937865513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="14.5">
+      <c r="G30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30">
+        <v>4.6126142580948075</v>
+      </c>
+      <c r="I30">
+        <v>5.0613199236446249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="14.5">
+      <c r="G31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>4.6254514827999795</v>
+      </c>
+      <c r="I31">
+        <v>5.1182247749810976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="14.5">
+      <c r="G32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32">
+        <v>4.6207431948288695</v>
+      </c>
+      <c r="I32">
+        <v>5.0976192826386191</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" ht="14.5">
+      <c r="G33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33">
+        <v>4.5752686785502767</v>
+      </c>
+      <c r="I33">
+        <v>5.0280146169435014</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" ht="14.5">
+      <c r="G34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34">
+        <v>4.6312758837798107</v>
+      </c>
+      <c r="I34">
+        <v>5.0584013289506444</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" ht="14.5">
+      <c r="G35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35">
+        <v>4.5418326083122951</v>
+      </c>
+      <c r="I35">
+        <v>4.9736803450372751</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" ht="14.5">
+      <c r="G36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36">
+        <v>4.5450333380542265</v>
+      </c>
+      <c r="I36">
+        <v>5.008861078811762</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" ht="14.5">
+      <c r="G37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37">
+        <v>4.6556763000818711</v>
+      </c>
+      <c r="I37">
+        <v>5.1432835547378222</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" ht="14.5">
+      <c r="G38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38">
+        <v>4.6876821500770989</v>
+      </c>
+      <c r="I38">
+        <v>5.1065310984952603</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" ht="14.5">
+      <c r="G39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39">
+        <v>4.6356987899721567</v>
+      </c>
+      <c r="I39">
+        <v>5.0888646452854109</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" ht="14.5">
+      <c r="G40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40">
+        <v>4.7065127367055366</v>
+      </c>
+      <c r="I40">
+        <v>5.1663027583718826</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" ht="14.5">
+      <c r="G41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>4.4807044174927659</v>
+      </c>
+      <c r="I41">
+        <v>4.4804890010467009</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" ht="14.5">
+      <c r="G42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42">
+        <v>4.4881090062285329</v>
+      </c>
+      <c r="I42">
+        <v>4.4879960729964798</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" ht="14.5">
+      <c r="G43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43">
+        <v>4.4713110631420134</v>
+      </c>
+      <c r="I43">
+        <v>4.4709881710825536</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" ht="14.5">
+      <c r="G44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44">
+        <v>4.4710753168821071</v>
+      </c>
+      <c r="I44">
+        <v>4.4708697563153947</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" ht="14.5">
+      <c r="G45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45">
+        <v>4.4778798543617064</v>
+      </c>
+      <c r="I45">
         <v>4.4777353181315709</v>
       </c>
     </row>
